--- a/console/Networking/diskChExcel/diskMixins/diskListItem.xlsx
+++ b/console/Networking/diskChExcel/diskMixins/diskListItem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\MobileFile\translation_review-确认by-GTCOM\translation_review-确认\translation_review\diskChExcel\diskMixins\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     </r>
   </si>
   <si>
-    <t>'Only cloud disk in available status supports recovery'</t>
-  </si>
-  <si>
     <t>diskListItem_i18nKey_13</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     </r>
   </si>
   <si>
-    <t>Recover</t>
-  </si>
-  <si>
     <t>diskListItem_i18nKey_14</t>
   </si>
   <si>
@@ -433,9 +427,6 @@
     </r>
   </si>
   <si>
-    <t>After the recovery operation is made, the current data in the cloud disk will be cleared and please operate with care</t>
-  </si>
-  <si>
     <t>diskListItem_i18nKey_21</t>
   </si>
   <si>
@@ -507,14 +498,26 @@
   </si>
   <si>
     <t>Edit tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only cloud disk in available status supports restoration'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After the restoration operation is made, the current data in the cloud disk will be cleared and please operate with care</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,6 +544,19 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -562,12 +578,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -907,18 +926,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="46.75" style="1"/>
+    <col min="1" max="2" width="46.75" style="1"/>
+    <col min="3" max="3" width="51.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="46.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -940,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,7 +983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -973,7 +994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -995,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1006,7 +1027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1017,7 +1038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1028,7 +1049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1039,130 +1060,134 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B22" numberStoredAsText="1"/>
   </ignoredErrors>
